--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Ngfr</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,55 +525,179 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4.674406333333334</v>
+      </c>
+      <c r="H2">
+        <v>14.023219</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>0.2652796666666666</v>
+      </c>
+      <c r="N2">
+        <v>0.795839</v>
+      </c>
+      <c r="O2">
+        <v>0.03859763870461846</v>
+      </c>
+      <c r="P2">
+        <v>0.03859763870461847</v>
+      </c>
+      <c r="Q2">
+        <v>1.240024953971222</v>
+      </c>
+      <c r="R2">
+        <v>11.160224585741</v>
+      </c>
+      <c r="S2">
+        <v>0.03859763870461846</v>
+      </c>
+      <c r="T2">
+        <v>0.03859763870461847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2.96761821818603</v>
-      </c>
-      <c r="H2">
-        <v>2.96761821818603</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>6.43607461625551</v>
-      </c>
-      <c r="N2">
-        <v>6.43607461625551</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>19.09981228480451</v>
-      </c>
-      <c r="R2">
-        <v>19.09981228480451</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4.674406333333334</v>
+      </c>
+      <c r="H3">
+        <v>14.023219</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.034619</v>
+      </c>
+      <c r="N3">
+        <v>0.103857</v>
+      </c>
+      <c r="O3">
+        <v>0.005036992360195417</v>
+      </c>
+      <c r="P3">
+        <v>0.005036992360195417</v>
+      </c>
+      <c r="Q3">
+        <v>0.1618232728536667</v>
+      </c>
+      <c r="R3">
+        <v>1.456409455683</v>
+      </c>
+      <c r="S3">
+        <v>0.005036992360195417</v>
+      </c>
+      <c r="T3">
+        <v>0.005036992360195417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.674406333333334</v>
+      </c>
+      <c r="H4">
+        <v>14.023219</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>6.573052000000001</v>
+      </c>
+      <c r="N4">
+        <v>19.719156</v>
+      </c>
+      <c r="O4">
+        <v>0.9563653689351861</v>
+      </c>
+      <c r="P4">
+        <v>0.9563653689351862</v>
+      </c>
+      <c r="Q4">
+        <v>30.72511589812934</v>
+      </c>
+      <c r="R4">
+        <v>276.526043083164</v>
+      </c>
+      <c r="S4">
+        <v>0.9563653689351861</v>
+      </c>
+      <c r="T4">
+        <v>0.9563653689351862</v>
       </c>
     </row>
   </sheetData>
